--- a/metrics/R2/upto time/Microalbuminuria (UPTO).xlsx
+++ b/metrics/R2/upto time/Microalbuminuria (UPTO).xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4156826220921643</v>
+        <v>0.4118872147856037</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4156826220921643</v>
+        <v>0.4118872147856037</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4156826220921643</v>
+        <v>0.4118872147856037</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9980070374629602</v>
+        <v>0.9810973069917313</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9979707136602728</v>
+        <v>0.9814947312269661</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9980445193712941</v>
+        <v>0.980004818404079</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9988406221474181</v>
+        <v>0.9846848576041</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9988376476413231</v>
+        <v>0.9850137392610101</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9988407163656408</v>
+        <v>0.985309442974356</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9628562671028731</v>
+        <v>0.9406324679204259</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9632154460355168</v>
+        <v>0.9439474157033233</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9562925123646766</v>
+        <v>0.9338655416087576</v>
       </c>
     </row>
   </sheetData>
